--- a/assets/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023 (1).xlsx
+++ b/assets/6- Annexe 6-1 - Tableau de synthèse - Epreuve E4 - BTS SIO 2023 (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27424"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanmattei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8DE0321-2E99-4031-86F0-A3F05B870558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F84F527-033F-4CEA-8EA1-8527ABCCFAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25200" windowHeight="11860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -135,7 +135,10 @@
 </t>
   </si>
   <si>
-    <t>Projet E5 LPRS</t>
+    <t>Projet E5 LPRS PHP</t>
+  </si>
+  <si>
+    <t>01/09/23 au 15/12/23</t>
   </si>
   <si>
     <t>X</t>
@@ -177,6 +180,9 @@
     <t>20//03/23 au 10/04/23</t>
   </si>
   <si>
+    <t>Projet E5 LPRS JAVA</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
@@ -199,6 +205,12 @@
   </si>
   <si>
     <t>13/11/23 au 23/11/23</t>
+  </si>
+  <si>
+    <t>Projet Illico</t>
+  </si>
+  <si>
+    <t>27/11/23 à actuellement</t>
   </si>
 </sst>
 </file>
@@ -682,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -747,15 +759,54 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,42 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1135,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -1149,56 +1164,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="35"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1210,22 +1225,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1248,8 +1263,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
@@ -1305,16 +1320,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1355,21 +1370,21 @@
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21">
-        <v>45181</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>26</v>
+      <c r="C9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9"/>
@@ -1410,20 +1425,18 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="44" t="s">
-        <v>26</v>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
@@ -1465,21 +1478,15 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
       <c r="I11"/>
@@ -1520,19 +1527,15 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
       <c r="I12"/>
@@ -1573,24 +1576,20 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="46" t="s">
-        <v>26</v>
+      <c r="H13" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1630,20 +1629,18 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="44" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
@@ -1685,21 +1682,17 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
       <c r="I15"/>
@@ -1739,14 +1732,16 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="26"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1874,16 +1869,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A19" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="A19" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1922,25 +1917,21 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="26"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2248,16 +2239,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A27" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="A27" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2296,23 +2287,23 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="15"/>
+        <v>46</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="26"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2351,15 +2342,15 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="44"/>
+        <v>48</v>
+      </c>
+      <c r="C29" s="22"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="44"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
       <c r="I29"/>
@@ -2399,14 +2390,18 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
+      <c r="A30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="26"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2716,11 +2711,6 @@
     <row r="81" customFormat="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2728,6 +2718,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2735,4 +2730,171 @@
   <pageSetup paperSize="9" scale="48" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010087AAF94FEF143A44B4D905E8A504A478" ma:contentTypeVersion="5" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="e308e19ea5a58e53b4b4c1d6832a15d9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a1cc78f-950f-46be-9599-5dacd17f7e73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be014b8e9ae77d99eb90ab439109650e" ns2:_="">
+    <xsd:import namespace="4a1cc78f-950f-46be-9599-5dacd17f7e73"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:ReferenceId" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a1cc78f-950f-46be-9599-5dacd17f7e73" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="ReferenceId" ma:index="8" nillable="true" ma:displayName="ReferenceId" ma:indexed="true" ma:internalName="ReferenceId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="12" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{716E2D07-515E-46F4-8D3F-BFA50247020E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B2B4C4D-17D9-4D50-9994-8C35C70AD1A4}"/>
 </file>